--- a/biology/Zoologie/Alcalus_tasanae/Alcalus_tasanae.xlsx
+++ b/biology/Zoologie/Alcalus_tasanae/Alcalus_tasanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcalus tasanae est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcalus tasanae est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Thaïlande[1]. Elle se rencontre dans les provinces de Kanchanaburi, de Chumpon, de Ranong, de Surat Thani et de Phang Nga à environ 1 000 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Thaïlande. Elle se rencontre dans les provinces de Kanchanaburi, de Chumpon, de Ranong, de Surat Thani et de Phang Nga à environ 1 000 m d'altitude.
 Sa présence est incertaine en Birmanie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcalus tasanae mesure de 31 à 40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcalus tasanae mesure de 31 à 40 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Tasan.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1921 : Two new batrachians and a new snake from Borneo and the Malay Peninsula. Journal of the Federated Malay States Museums, vol. 10, p. 197-199 (texte intégral).
 Smith, 1921 : New name for the frog Rana pullus. Journal of the Natural History Society of Siam, vol. 4, p. 193 (texte intégral).</t>
